--- a/铝/eta/氧化铝周度产量_月度数据.xlsx
+++ b/铝/eta/氧化铝周度产量_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>163.7</v>
+        <v>144.4</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>182.5</v>
+        <v>163.2</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         <v>186.2</v>
       </c>
       <c r="C4" t="n">
-        <v>166.3</v>
+        <v>162.4</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>184.9</v>
       </c>
       <c r="C6" t="n">
-        <v>184.1</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -534,7 +534,7 @@
         <v>171.7</v>
       </c>
       <c r="C8" t="n">
-        <v>171.3</v>
+        <v>171.2</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>166.7</v>
       </c>
       <c r="C18" t="n">
-        <v>166.2</v>
+        <v>166.3</v>
       </c>
     </row>
     <row r="19">
